--- a/Payment Data Base.xlsx
+++ b/Payment Data Base.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Input Sheet" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
   <si>
     <t>Payment Record</t>
   </si>
@@ -91,13 +91,22 @@
     <t>February</t>
   </si>
   <si>
+    <t>Jenelyn Madriaga</t>
+  </si>
+  <si>
     <t>Anie Lagrimas</t>
+  </si>
+  <si>
+    <t>Dennis Padilla</t>
   </si>
   <si>
     <t>April Rose Mayo</t>
   </si>
   <si>
     <t>April</t>
+  </si>
+  <si>
+    <t>Nathaniel Guevarra Aguilar</t>
   </si>
   <si>
     <t>Arlene Lobo Paule</t>
@@ -116,9 +125,6 @@
   </si>
   <si>
     <t>July</t>
-  </si>
-  <si>
-    <t>Dennis Padilla</t>
   </si>
   <si>
     <t>August</t>
@@ -152,9 +158,6 @@
   </si>
   <si>
     <t>Jc Noah Belbar</t>
-  </si>
-  <si>
-    <t>Jenelyn Madriaga</t>
   </si>
   <si>
     <t>Jenelyn Cioco</t>
@@ -226,7 +229,58 @@
     <t>Ryan Austria</t>
   </si>
   <si>
-    <t>Sum of PAID AMOUNT</t>
+    <t>100 Total</t>
+  </si>
+  <si>
+    <t>23 Total</t>
+  </si>
+  <si>
+    <t>March Total</t>
+  </si>
+  <si>
+    <t>29 Total</t>
+  </si>
+  <si>
+    <t>April Total</t>
+  </si>
+  <si>
+    <t>2025 Total</t>
+  </si>
+  <si>
+    <t>Aubrey Cerezo Crespo Total</t>
+  </si>
+  <si>
+    <t>21 Total</t>
+  </si>
+  <si>
+    <t>28 Total</t>
+  </si>
+  <si>
+    <t>Charlie Timbalaco Total</t>
+  </si>
+  <si>
+    <t>22 Total</t>
+  </si>
+  <si>
+    <t>26 Total</t>
+  </si>
+  <si>
+    <t>Dennis Padilla Total</t>
+  </si>
+  <si>
+    <t>3 Total</t>
+  </si>
+  <si>
+    <t>19 Total</t>
+  </si>
+  <si>
+    <t>Jamaiza Campomayor Total</t>
+  </si>
+  <si>
+    <t>Jenelyn Madriaga Total</t>
+  </si>
+  <si>
+    <t>Nathaniel Guevarra Aguilar Total</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -1021,10 +1075,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1157,7 +1211,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="71">
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -1474,54 +1528,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="179" formatCode="mmmmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="mmmmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="mmmmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="mmmmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="mmmmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="mmmmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="mmmmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="mmmmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="mmmmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="mmmmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="mmmmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="[$PHP]\ #,##0.00;[$PHP]\ \-#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="[$PHP]\ #,##0.00;[$PHP]\ \-#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="[$PHP]\ #,##0.00;[$PHP]\ \-#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="[$PHP]\ #,##0.00;[$PHP]\ \-#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="[$PHP]\ #,##0.00;[$PHP]\ \-#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="[$PHP]\ #,##0.00;[$PHP]\ \-#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="178" formatCode="[$PHP]\ #,##0.00;[$PHP]\ \-#,##0.00"/>
@@ -1866,34 +1872,34 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="69"/>
-      <tableStyleElement type="headerRow" dxfId="68"/>
-      <tableStyleElement type="totalRow" dxfId="67"/>
-      <tableStyleElement type="firstColumn" dxfId="66"/>
-      <tableStyleElement type="lastColumn" dxfId="65"/>
-      <tableStyleElement type="firstRowStripe" dxfId="64"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="63"/>
+      <tableStyleElement type="wholeTable" dxfId="53"/>
+      <tableStyleElement type="headerRow" dxfId="52"/>
+      <tableStyleElement type="totalRow" dxfId="51"/>
+      <tableStyleElement type="firstColumn" dxfId="50"/>
+      <tableStyleElement type="lastColumn" dxfId="49"/>
+      <tableStyleElement type="firstRowStripe" dxfId="48"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="47"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="79"/>
-      <tableStyleElement type="totalRow" dxfId="78"/>
-      <tableStyleElement type="firstRowStripe" dxfId="77"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="76"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="75"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="74"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="73"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="72"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="71"/>
-      <tableStyleElement type="pageFieldValues" dxfId="70"/>
+      <tableStyleElement type="headerRow" dxfId="63"/>
+      <tableStyleElement type="totalRow" dxfId="62"/>
+      <tableStyleElement type="firstRowStripe" dxfId="61"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="60"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="59"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="58"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="57"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="56"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="55"/>
+      <tableStyleElement type="pageFieldValues" dxfId="54"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset6_Accent1" table="0" count="7" xr9:uid="{C14D74E0-0E90-48FA-A4CF-29A2662E7F7C}">
-      <tableStyleElement type="wholeTable" dxfId="86"/>
-      <tableStyleElement type="firstColumn" dxfId="85"/>
-      <tableStyleElement type="firstRowStripe" dxfId="84"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="83"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="82"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="81"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="80"/>
+      <tableStyleElement type="wholeTable" dxfId="70"/>
+      <tableStyleElement type="firstColumn" dxfId="69"/>
+      <tableStyleElement type="firstRowStripe" dxfId="68"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="67"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="66"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="65"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="64"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1918,7 +1924,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Reunion.xlsx]Sorting Sheet!PivotTable6</c:name>
+    <c:name>[Payment Data Base.xlsx]Sorting Sheet!PivotTable6</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1927,155 +1933,18 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sorting Sheet'!$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="203200" dist="279400" dir="8100000" algn="tr" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="40000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Sorting Sheet'!$A$4:$F$6</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="1"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>3</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>March</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>100</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Jamaiza Campomayor</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sorting Sheet'!$G$4:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>[$PHP]\ #,##0.00;[$PHP]\ \-#,##0.00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="246"/>
-        <c:overlap val="-28"/>
+        <c:gapWidth val="500"/>
+        <c:overlap val="100"/>
         <c:axId val="567797464"/>
         <c:axId val="945219092"/>
       </c:barChart>
@@ -2093,7 +1962,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -2107,9 +1976,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -2148,7 +2017,37 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="[$PHP]\ #,##0.00;[$PHP]\ \-#,##0.00" sourceLinked="1"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2164,9 +2063,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -2182,6 +2081,44 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2201,7 +2138,9 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="96000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2219,7 +2158,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-US" sz="1000"/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
     </a:p>
   </c:txPr>
@@ -2281,13 +2220,13 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10001">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10027">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2299,7 +2238,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2307,7 +2246,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2326,7 +2265,9 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="96000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -2345,7 +2286,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
@@ -2384,7 +2325,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -2392,8 +2333,36 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:hueOff val="-1670000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
       <a:ln>
-        <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="75000"/>
+                <a:hueOff val="-1670000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5280000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
       <a:effectLst/>
     </cs:spPr>
@@ -2469,7 +2438,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2478,7 +2447,7 @@
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2493,22 +2462,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2520,14 +2490,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2541,7 +2510,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -2609,14 +2578,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="75000"/>
             <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2628,14 +2596,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2644,7 +2611,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2672,7 +2639,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2687,14 +2654,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2703,7 +2669,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
@@ -2733,7 +2699,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2745,19 +2711,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2766,7 +2733,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2807,15 +2774,15 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="Group 11"/>
+        <xdr:cNvPr id="5" name="Group 4"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8895080" y="379095"/>
+          <a:off x="9608820" y="379095"/>
           <a:ext cx="5535295" cy="6365240"/>
           <a:chOff x="14015" y="574"/>
-          <a:chExt cx="8717" cy="3679"/>
+          <a:chExt cx="8717" cy="9832"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2827,7 +2794,7 @@
             </xdr:nvGraphicFramePr>
             <xdr:xfrm>
               <a:off x="14015" y="574"/>
-              <a:ext cx="2880" cy="3666"/>
+              <a:ext cx="2880" cy="9797"/>
             </xdr:xfrm>
             <a:graphic>
               <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
@@ -2847,7 +2814,7 @@
             <xdr:spPr>
               <a:xfrm>
                 <a:off x="14015" y="574"/>
-                <a:ext cx="2880" cy="3666"/>
+                <a:ext cx="2880" cy="9797"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -2881,9 +2848,9 @@
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="16938" y="583"/>
-            <a:ext cx="5794" cy="3670"/>
+          <a:xfrm rot="0">
+            <a:off x="16938" y="598"/>
+            <a:ext cx="5794" cy="9808"/>
             <a:chOff x="14015" y="542"/>
             <a:chExt cx="5794" cy="3670"/>
           </a:xfrm>
@@ -3045,20 +3012,22 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45719.651724537" refreshedBy="denni" recordCount="2">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45790.4240856481" refreshedBy="denni" recordCount="11">
   <cacheSource type="worksheet">
     <worksheetSource name="Table4"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="MEMBERS" numFmtId="0">
-      <sharedItems containsBlank="1" count="13">
+      <sharedItems containsBlank="1" count="15">
         <s v="Jamaiza Campomayor"/>
+        <s v="Jenelyn Madriaga"/>
+        <s v="Dennis Padilla"/>
+        <s v="Nathaniel Guevarra Aguilar"/>
+        <s v="Aubrey Cerezo Crespo"/>
+        <s v="Charlie Timbalaco"/>
         <m/>
-        <s v="Aubrey Cerezo Crespo" u="1"/>
         <s v="Arlene Lobo Paule" u="1"/>
-        <s v="Charlie Timbalaco" u="1"/>
         <s v="Dinzy Mae Doblin" u="1"/>
-        <s v="Dennis Padilla" u="1"/>
         <s v="Niever Owel" u="1"/>
         <s v="Quim Cadaa" u="1"/>
         <s v="Lusvin Ibanez Papuran" u="1"/>
@@ -3084,23 +3053,26 @@
     <cacheField name="Month" numFmtId="179">
       <sharedItems containsBlank="1" count="5">
         <s v="March"/>
+        <s v="April"/>
         <m/>
-        <s v="April" u="1"/>
         <s v="May" u="1"/>
         <s v="January" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Day" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="30" count="12">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="30" count="15">
         <n v="3"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+        <n v="19"/>
+        <n v="26"/>
+        <n v="28"/>
+        <n v="29"/>
         <m/>
         <n v="30" u="1"/>
-        <n v="28" u="1"/>
-        <n v="29" u="1"/>
         <n v="20" u="1"/>
         <n v="25" u="1"/>
-        <n v="21" u="1"/>
-        <n v="26" u="1"/>
         <n v="1" u="1"/>
         <n v="2" u="1"/>
         <n v="5" u="1"/>
@@ -3126,7 +3098,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="11">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -3137,10 +3109,82 @@
   </r>
   <r>
     <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
     <x v="1"/>
   </r>
 </pivotCacheRecords>
@@ -3148,94 +3192,418 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" showMissing="0" useAutoFormatting="1" compact="0" indent="0" compactData="0" showDrill="0" multipleFieldFilters="0" fieldListSortAscending="1" chartFormat="6">
-  <location ref="A3:G6" firstHeaderRow="1" firstDataRow="1" firstDataCol="6"/>
+  <location ref="A3:F98" firstHeaderRow="1" firstDataRow="1" firstDataCol="6"/>
   <pivotFields count="6">
-    <pivotField axis="axisRow" compact="0" insertBlankRow="1" sortType="ascending" defaultSubtotal="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
+    <pivotField axis="axisRow" compact="0" insertBlankRow="1" sortType="ascending" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="16">
+        <item m="1" x="7"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item m="1" x="8"/>
         <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item x="3"/>
         <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
         <item m="1" x="10"/>
-        <item m="1" x="11"/>
         <item m="1" x="12"/>
-        <item h="1" x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" dataField="1" compact="0" insertBlankRow="1" sortType="ascending" defaultSubtotal="0" outline="0" showAll="0">
-      <items count="4">
+    <pivotField axis="axisRow" compact="0" insertBlankRow="1" sortType="ascending" outline="0" showAll="0">
+      <items count="5">
         <item x="0"/>
         <item m="1" x="2"/>
         <item m="1" x="3"/>
         <item x="1"/>
+        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" insertBlankRow="1" sortType="ascending" defaultSubtotal="0" outline="0" showAll="0">
-      <items count="2">
+    <pivotField axis="axisRow" compact="0" insertBlankRow="1" sortType="ascending" outline="0" showAll="0">
+      <items count="3">
         <item x="0"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
+        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" insertBlankRow="1" sortType="ascending" defaultSubtotal="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
+    <pivotField axis="axisRow" compact="0" insertBlankRow="1" sortType="ascending" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
         <item m="1" x="4"/>
         <item x="0"/>
-        <item m="1" x="2"/>
+        <item x="1"/>
         <item m="1" x="3"/>
-        <item h="1" x="1"/>
+        <item x="2"/>
+        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" insertBlankRow="1" sortType="ascending" defaultSubtotal="0" outline="0" showAll="0">
-      <items count="12">
+    <pivotField axis="axisRow" compact="0" insertBlankRow="1" sortType="ascending" outline="0" showAll="0">
+      <items count="16">
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item x="0"/>
+        <item m="1" x="14"/>
+        <item x="4"/>
+        <item m="1" x="10"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="11"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
         <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item m="1" x="2"/>
-        <item x="1"/>
+        <item x="8"/>
+        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" insertBlankRow="1" sortType="ascending" defaultSubtotal="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
+    <pivotField axis="axisRow" compact="0" insertBlankRow="1" sortType="ascending" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
         <item m="1" x="5"/>
         <item m="1" x="4"/>
         <item m="1" x="2"/>
         <item x="0"/>
         <item m="1" x="3"/>
         <item x="1"/>
+        <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="6">
     <field x="0"/>
-    <field x="1"/>
     <field x="2"/>
     <field x="3"/>
     <field x="4"/>
+    <field x="1"/>
     <field x="5"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="95">
+    <i>
+      <x v="1"/>
+      <x/>
+      <x v="1"/>
+      <x v="8"/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="4">
+      <x/>
+    </i>
+    <i t="blank" r="4">
+      <x/>
+    </i>
+    <i t="default" r="3">
+      <x v="8"/>
+    </i>
+    <i t="blank" r="3">
+      <x v="8"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="blank" r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+      <x v="12"/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="4">
+      <x/>
+    </i>
+    <i t="blank" r="4">
+      <x/>
+    </i>
+    <i t="default" r="3">
+      <x v="12"/>
+    </i>
+    <i t="blank" r="3">
+      <x v="12"/>
+    </i>
+    <i t="default" r="2">
+      <x v="2"/>
+    </i>
+    <i t="blank" r="2">
+      <x v="2"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i t="blank" r="1">
+      <x/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i t="blank">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+      <x v="1"/>
+      <x v="6"/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="4">
+      <x/>
+    </i>
+    <i t="blank" r="4">
+      <x/>
+    </i>
+    <i t="default" r="3">
+      <x v="6"/>
+    </i>
+    <i t="blank" r="3">
+      <x v="6"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="blank" r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+      <x v="11"/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="4">
+      <x/>
+    </i>
+    <i t="blank" r="4">
+      <x/>
+    </i>
+    <i t="default" r="3">
+      <x v="11"/>
+    </i>
+    <i t="blank" r="3">
+      <x v="11"/>
+    </i>
+    <i t="default" r="2">
+      <x v="2"/>
+    </i>
+    <i t="blank" r="2">
+      <x v="2"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i t="blank" r="1">
+      <x/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i t="blank">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+      <x v="1"/>
+      <x v="7"/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="4">
+      <x/>
+    </i>
+    <i t="blank" r="4">
+      <x/>
+    </i>
+    <i t="default" r="3">
+      <x v="7"/>
+    </i>
+    <i t="blank" r="3">
+      <x v="7"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="blank" r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+      <x v="10"/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="4">
+      <x/>
+    </i>
+    <i t="blank" r="4">
+      <x/>
+    </i>
+    <i t="default" r="3">
+      <x v="10"/>
+    </i>
+    <i t="blank" r="3">
+      <x v="10"/>
+    </i>
+    <i t="default" r="2">
+      <x v="2"/>
+    </i>
+    <i t="blank" r="2">
+      <x v="2"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i t="blank" r="1">
+      <x/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i t="blank">
+      <x v="3"/>
+    </i>
     <i>
       <x v="5"/>
       <x/>
+      <x v="1"/>
+      <x v="2"/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="4">
+      <x/>
+    </i>
+    <i t="blank" r="4">
+      <x/>
+    </i>
+    <i t="default" r="3">
+      <x v="2"/>
+    </i>
+    <i t="blank" r="3">
+      <x v="2"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="blank" r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+      <x v="4"/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="4">
+      <x/>
+    </i>
+    <i t="blank" r="4">
+      <x/>
+    </i>
+    <i t="default" r="3">
+      <x v="4"/>
+    </i>
+    <i t="blank" r="3">
+      <x v="4"/>
+    </i>
+    <i t="default" r="2">
+      <x v="2"/>
+    </i>
+    <i t="blank" r="2">
+      <x v="2"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i t="blank" r="1">
+      <x/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i t="blank">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
       <x/>
       <x v="1"/>
-      <x v="2"/>
+      <x v="6"/>
+      <x/>
       <x v="3"/>
     </i>
+    <i t="default" r="4">
+      <x/>
+    </i>
     <i t="blank" r="4">
-      <x v="2"/>
+      <x/>
+    </i>
+    <i t="default" r="3">
+      <x v="6"/>
+    </i>
+    <i t="blank" r="3">
+      <x v="6"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="blank" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i t="blank" r="1">
+      <x/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i t="blank">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x/>
+      <x v="1"/>
+      <x v="7"/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="4">
+      <x/>
+    </i>
+    <i t="blank" r="4">
+      <x/>
+    </i>
+    <i t="default" r="3">
+      <x v="7"/>
+    </i>
+    <i t="blank" r="3">
+      <x v="7"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="blank" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i t="blank" r="1">
+      <x/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i t="blank">
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -3244,10 +3612,7 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of PAID AMOUNT" fld="1" baseField="0" baseItem="7" numFmtId="178"/>
-  </dataFields>
-  <formats count="59">
+  <formats count="43">
     <format dxfId="0">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
@@ -3255,7 +3620,7 @@
       <pivotArea dataOnly="0" labelOnly="1" offset="IV1:IV1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
-            <x v="7"/>
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
@@ -3267,7 +3632,7 @@
             <x v="0"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="7"/>
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
@@ -3378,270 +3743,18 @@
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="38">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="4">
-          <reference field="3" count="1">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" offset="D1:D1" fieldPosition="0"/>
     </format>
     <format dxfId="39">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="4">
-          <reference field="3" count="1">
-            <x v="2"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="40">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="4">
-          <reference field="3" count="1">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" offset="B1:B1" fieldPosition="0"/>
     </format>
     <format dxfId="41">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="4">
-          <reference field="3" count="1">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="42">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="4">
-          <reference field="3" count="1">
-            <x v="4"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="43">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" offset="D1:D1" fieldPosition="0"/>
-    </format>
-    <format dxfId="44">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="4">
-          <reference field="3" count="1">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="45">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="4">
-          <reference field="3" count="1">
-            <x v="2"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="46">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="4">
-          <reference field="3" count="1">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="47">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="4">
-          <reference field="3" count="1">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="48">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="4">
-          <reference field="3" count="1">
-            <x v="4"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="49">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="50">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="51">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1">
-            <x v="1"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="52">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" offset="B1:B1" fieldPosition="0"/>
-    </format>
-    <format dxfId="53">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="54">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="55">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="56">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="57">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1">
-            <x v="3"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" offset="B1:B1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3660,25 +3773,31 @@
     <pivotTable tabId="12" name="PivotTable6"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="1">
-      <items count="13">
+    <tabular pivotCacheId="1" showMissing="0">
+      <items count="15">
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="2" s="1"/>
         <i x="0" s="1"/>
-        <i x="3" s="1" nd="1"/>
-        <i x="2" s="1" nd="1"/>
-        <i x="4" s="1" nd="1"/>
-        <i x="6" s="1" nd="1"/>
-        <i x="5" s="1" nd="1"/>
-        <i x="9" s="1" nd="1"/>
+        <i x="1" s="1"/>
+        <i x="3" s="1"/>
+        <i x="6" s="0"/>
         <i x="7" s="1" nd="1"/>
         <i x="8" s="1" nd="1"/>
+        <i x="11" s="1" nd="1"/>
+        <i x="9" s="1" nd="1"/>
         <i x="10" s="1" nd="1"/>
-        <i x="11" s="1" nd="1"/>
         <i x="12" s="1" nd="1"/>
-        <i x="1" s="0" nd="1"/>
+        <i x="13" s="1" nd="1"/>
+        <i x="14" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
-  <extLst/>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
 </slicerCacheDefinition>
 </file>
 
@@ -3691,14 +3810,18 @@
     <tabular pivotCacheId="1">
       <items count="5">
         <i x="0" s="1"/>
+        <i x="1" s="1"/>
         <i x="4" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
         <i x="2" s="1" nd="1"/>
-        <i x="3" s="1" nd="1"/>
-        <i x="1" s="0" nd="1"/>
       </items>
     </tabular>
   </data>
-  <extLst/>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
 </slicerCacheDefinition>
 </file>
 
@@ -3711,11 +3834,15 @@
     <tabular pivotCacheId="1">
       <items count="2">
         <i x="0" s="1"/>
-        <i x="1" s="0" nd="1"/>
+        <i x="1" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
-  <extLst/>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
 </slicerCacheDefinition>
 </file>
 
@@ -3731,12 +3858,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="F3:K1353" totalsRowShown="0">
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="F3:K1353" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="MEMBERS" dataDxfId="59"/>
-    <tableColumn id="2" name="PAID AMOUNT" dataDxfId="60"/>
+    <tableColumn id="1" name="MEMBERS" dataDxfId="43"/>
+    <tableColumn id="2" name="PAID AMOUNT" dataDxfId="44"/>
     <tableColumn id="6" name="Year"/>
     <tableColumn id="5" name="Month"/>
-    <tableColumn id="3" name="Day" dataDxfId="61"/>
-    <tableColumn id="4" name="MODE OF PAYMENT" dataDxfId="62"/>
+    <tableColumn id="3" name="Day" dataDxfId="45"/>
+    <tableColumn id="4" name="MODE OF PAYMENT" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4002,8 +4129,8 @@
   <sheetPr/>
   <dimension ref="A1:S1353"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="21" customHeight="1"/>
@@ -4138,12 +4265,24 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="20"/>
+      <c r="F5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="20">
+        <v>100</v>
+      </c>
+      <c r="H5" s="19">
+        <v>2025</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="30">
+        <v>21</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
@@ -4154,7 +4293,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:19">
       <c r="A6" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18" t="s">
@@ -4166,12 +4305,24 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="20"/>
+      <c r="F6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="20">
+        <v>100</v>
+      </c>
+      <c r="H6" s="19">
+        <v>2025</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="30">
+        <v>22</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
@@ -4182,11 +4333,11 @@
     </row>
     <row r="7" customHeight="1" spans="1:19">
       <c r="A7" s="18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="18">
         <v>4</v>
@@ -4194,12 +4345,24 @@
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="20"/>
+      <c r="F7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="20">
+        <v>100</v>
+      </c>
+      <c r="H7" s="19">
+        <v>2025</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="30">
+        <v>22</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
@@ -4210,11 +4373,11 @@
     </row>
     <row r="8" customHeight="1" spans="1:19">
       <c r="A8" s="18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8" s="18">
         <v>5</v>
@@ -4222,12 +4385,24 @@
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="20"/>
+      <c r="F8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="20">
+        <v>100</v>
+      </c>
+      <c r="H8" s="19">
+        <v>2025</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="30">
+        <v>23</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
@@ -4238,11 +4413,11 @@
     </row>
     <row r="9" customHeight="1" spans="1:19">
       <c r="A9" s="18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9" s="18">
         <v>6</v>
@@ -4250,12 +4425,24 @@
       <c r="E9">
         <v>6</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="20"/>
+      <c r="F9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="20">
+        <v>100</v>
+      </c>
+      <c r="H9" s="19">
+        <v>2025</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="30">
+        <v>21</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
@@ -4266,11 +4453,11 @@
     </row>
     <row r="10" customHeight="1" spans="1:19">
       <c r="A10" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" s="18">
         <v>7</v>
@@ -4278,12 +4465,24 @@
       <c r="E10">
         <v>7</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="20"/>
+      <c r="F10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="20">
+        <v>100</v>
+      </c>
+      <c r="H10" s="19">
+        <v>2025</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="28">
+        <v>19</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
@@ -4294,11 +4493,11 @@
     </row>
     <row r="11" customHeight="1" spans="1:19">
       <c r="A11" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="18">
         <v>8</v>
@@ -4306,12 +4505,24 @@
       <c r="E11">
         <v>8</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="20"/>
+      <c r="F11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="20">
+        <v>100</v>
+      </c>
+      <c r="H11" s="19">
+        <v>2025</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="28">
+        <v>26</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
@@ -4322,11 +4533,11 @@
     </row>
     <row r="12" customHeight="1" spans="1:19">
       <c r="A12" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="18">
         <v>9</v>
@@ -4334,12 +4545,24 @@
       <c r="E12">
         <v>9</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="20"/>
+      <c r="F12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="20">
+        <v>100</v>
+      </c>
+      <c r="H12" s="19">
+        <v>2025</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="28">
+        <v>28</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
@@ -4350,11 +4573,11 @@
     </row>
     <row r="13" customHeight="1" spans="1:19">
       <c r="A13" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="18">
         <v>10</v>
@@ -4362,12 +4585,24 @@
       <c r="E13">
         <v>10</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="20"/>
+      <c r="F13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="20">
+        <v>100</v>
+      </c>
+      <c r="H13" s="19">
+        <v>2025</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="28">
+        <v>29</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
@@ -4378,11 +4613,11 @@
     </row>
     <row r="14" customHeight="1" spans="1:19">
       <c r="A14" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" s="18">
         <v>11</v>
@@ -4406,11 +4641,11 @@
     </row>
     <row r="15" customHeight="1" spans="1:19">
       <c r="A15" s="18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" s="18">
         <v>12</v>
@@ -4460,7 +4695,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:19">
       <c r="A17" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -4486,7 +4721,7 @@
     </row>
     <row r="18" customHeight="1" spans="1:19">
       <c r="A18" s="18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -4512,7 +4747,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:19">
       <c r="A19" s="18" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -4538,7 +4773,7 @@
     </row>
     <row r="20" customHeight="1" spans="1:19">
       <c r="A20" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -4564,7 +4799,7 @@
     </row>
     <row r="21" customHeight="1" spans="1:19">
       <c r="A21" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -4590,7 +4825,7 @@
     </row>
     <row r="22" customHeight="1" spans="1:19">
       <c r="A22" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -4616,7 +4851,7 @@
     </row>
     <row r="23" customHeight="1" spans="1:19">
       <c r="A23" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -4642,7 +4877,7 @@
     </row>
     <row r="24" customHeight="1" spans="1:19">
       <c r="A24" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -4668,7 +4903,7 @@
     </row>
     <row r="25" customHeight="1" spans="1:19">
       <c r="A25" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -4694,7 +4929,7 @@
     </row>
     <row r="26" customHeight="1" spans="1:11">
       <c r="A26" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -4713,7 +4948,7 @@
     </row>
     <row r="27" customHeight="1" spans="1:11">
       <c r="A27" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -4732,7 +4967,7 @@
     </row>
     <row r="28" customHeight="1" spans="1:11">
       <c r="A28" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -4751,7 +4986,7 @@
     </row>
     <row r="29" customHeight="1" spans="1:11">
       <c r="A29" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -4770,7 +5005,7 @@
     </row>
     <row r="30" customHeight="1" spans="1:11">
       <c r="A30" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -4789,7 +5024,7 @@
     </row>
     <row r="31" customHeight="1" spans="1:11">
       <c r="A31" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -4808,7 +5043,7 @@
     </row>
     <row r="32" customHeight="1" spans="1:11">
       <c r="A32" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -4827,7 +5062,7 @@
     </row>
     <row r="33" customHeight="1" spans="1:11">
       <c r="A33" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -4846,7 +5081,7 @@
     </row>
     <row r="34" customHeight="1" spans="1:11">
       <c r="A34" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -4865,7 +5100,7 @@
     </row>
     <row r="35" customHeight="1" spans="1:11">
       <c r="A35" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E35">
         <v>32</v>
@@ -4879,7 +5114,7 @@
     </row>
     <row r="36" customHeight="1" spans="1:11">
       <c r="A36" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E36">
         <v>33</v>
@@ -4893,7 +5128,7 @@
     </row>
     <row r="37" customHeight="1" spans="1:11">
       <c r="A37" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E37">
         <v>34</v>
@@ -4907,7 +5142,7 @@
     </row>
     <row r="38" customHeight="1" spans="1:11">
       <c r="A38" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E38">
         <v>35</v>
@@ -4921,7 +5156,7 @@
     </row>
     <row r="39" customHeight="1" spans="1:11">
       <c r="A39" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E39">
         <v>36</v>
@@ -4935,7 +5170,7 @@
     </row>
     <row r="40" customHeight="1" spans="1:11">
       <c r="A40" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E40">
         <v>37</v>
@@ -4949,7 +5184,7 @@
     </row>
     <row r="41" customHeight="1" spans="1:11">
       <c r="A41" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E41">
         <v>38</v>
@@ -4963,7 +5198,7 @@
     </row>
     <row r="42" customHeight="1" spans="1:11">
       <c r="A42" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E42">
         <v>39</v>
@@ -19401,18 +19636,18 @@
     <mergeCell ref="F1:K2"/>
   </mergeCells>
   <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12 H13 H4:H11 H14:H1353">
+      <formula1>$B$4:$B$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12 I13 I4:I11 I14:I1353">
+      <formula1>$C$4:$C$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12 J13 J4:J11 J14:J1353">
+      <formula1>$D$4:$D$34</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13 G4:G12 G14:G1353"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F1353">
       <formula1>$A$4:$A$84</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G1353"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1353">
-      <formula1>$B$4:$B$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1353">
-      <formula1>$C$4:$C$15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J1353">
-      <formula1>$D$4:$D$34</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19426,20 +19661,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="29.037037037037" customWidth="1"/>
+    <col min="1" max="1" width="25.1111111111111"/>
     <col min="2" max="2" width="21.1111111111111" style="1"/>
     <col min="3" max="3" width="10.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="11.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.77777777777778"/>
-    <col min="6" max="6" width="23.1111111111111"/>
+    <col min="5" max="6" width="23.1111111111111"/>
     <col min="7" max="7" width="21.1111111111111"/>
     <col min="8" max="8" width="4.66666666666667"/>
   </cols>
@@ -19450,263 +19684,975 @@
     <row r="2" spans="4:4">
       <c r="D2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6">
         <v>100</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2025</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6">
-        <v>3</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="7"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="7">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6">
+        <v>29</v>
+      </c>
+      <c r="E11" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9"/>
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10"/>
-      <c r="D10"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11"/>
-      <c r="D11"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12"/>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13"/>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14"/>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15"/>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16"/>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19"/>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20"/>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21"/>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22"/>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23"/>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24"/>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25"/>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26"/>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27"/>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28"/>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29"/>
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30"/>
-      <c r="D30"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31"/>
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32"/>
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33"/>
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34"/>
-      <c r="D34"/>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35"/>
-      <c r="D35"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36"/>
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37"/>
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38"/>
-      <c r="D38"/>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39"/>
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40"/>
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41"/>
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42"/>
-      <c r="D42"/>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43"/>
-      <c r="D43"/>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44"/>
-      <c r="D44"/>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45"/>
-      <c r="D45"/>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46"/>
-      <c r="D46"/>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47"/>
-      <c r="D47"/>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48"/>
-      <c r="D48"/>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49"/>
-      <c r="D49"/>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50"/>
-      <c r="D50"/>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51"/>
-      <c r="D51"/>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52"/>
-      <c r="D52"/>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53"/>
-      <c r="D53"/>
+      <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6">
+        <v>21</v>
+      </c>
+      <c r="E22" s="6">
+        <v>100</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="6">
+        <v>28</v>
+      </c>
+      <c r="E29" s="6">
+        <v>100</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="6">
+        <v>22</v>
+      </c>
+      <c r="E40" s="6">
+        <v>100</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="6">
+        <v>26</v>
+      </c>
+      <c r="E47" s="6">
+        <v>100</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="6">
+        <v>3</v>
+      </c>
+      <c r="E58" s="6">
+        <v>100</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="6">
+        <v>19</v>
+      </c>
+      <c r="E65" s="6">
+        <v>100</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="6">
+        <v>21</v>
+      </c>
+      <c r="E76" s="6">
+        <v>100</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="6">
+        <v>22</v>
+      </c>
+      <c r="E87" s="6">
+        <v>100</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19727,8 +20673,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/Payment Data Base.xlsx
+++ b/Payment Data Base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Input Sheet" sheetId="4" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="Overview" sheetId="13" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="Slicer_MEMBERS">#N/A</definedName>
+    <definedName name="Slicer_Month">#N/A</definedName>
     <definedName name="Slicer_Year">#N/A</definedName>
-    <definedName name="Slicer_Month">#N/A</definedName>
-    <definedName name="Slicer_MEMBERS">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>Payment Record</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>Sum of PAID AMOUNT</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -1154,14 +1160,9 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="70">
     <dxf>
       <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -1815,34 +1816,34 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="53"/>
-      <tableStyleElement type="headerRow" dxfId="52"/>
-      <tableStyleElement type="totalRow" dxfId="51"/>
-      <tableStyleElement type="firstColumn" dxfId="50"/>
-      <tableStyleElement type="lastColumn" dxfId="49"/>
-      <tableStyleElement type="firstRowStripe" dxfId="48"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="47"/>
+      <tableStyleElement type="wholeTable" dxfId="52"/>
+      <tableStyleElement type="headerRow" dxfId="51"/>
+      <tableStyleElement type="totalRow" dxfId="50"/>
+      <tableStyleElement type="firstColumn" dxfId="49"/>
+      <tableStyleElement type="lastColumn" dxfId="48"/>
+      <tableStyleElement type="firstRowStripe" dxfId="47"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="46"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="63"/>
-      <tableStyleElement type="totalRow" dxfId="62"/>
-      <tableStyleElement type="firstRowStripe" dxfId="61"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="60"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="59"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="58"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="57"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="56"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="55"/>
-      <tableStyleElement type="pageFieldValues" dxfId="54"/>
+      <tableStyleElement type="headerRow" dxfId="62"/>
+      <tableStyleElement type="totalRow" dxfId="61"/>
+      <tableStyleElement type="firstRowStripe" dxfId="60"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="59"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="58"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="57"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="56"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="55"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="54"/>
+      <tableStyleElement type="pageFieldValues" dxfId="53"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset6_Accent1" table="0" count="7" xr9:uid="{C14D74E0-0E90-48FA-A4CF-29A2662E7F7C}">
-      <tableStyleElement type="wholeTable" dxfId="70"/>
-      <tableStyleElement type="firstColumn" dxfId="69"/>
-      <tableStyleElement type="firstRowStripe" dxfId="68"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="67"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="66"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="65"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="64"/>
+      <tableStyleElement type="wholeTable" dxfId="69"/>
+      <tableStyleElement type="firstColumn" dxfId="68"/>
+      <tableStyleElement type="firstRowStripe" dxfId="67"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="66"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="65"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="64"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="63"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1867,23 +1868,23 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Payment Data Base.xlsx]Sorting Sheet!PivotTable6</c:name>
+    <c:name>[payment data base.20250616170602044.xlsx]Sorting Sheet!PivotTable6</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="percentStacked"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sorting Sheet'!$D$3:$D$4</c:f>
+              <c:f>'Sorting Sheet'!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1928,131 +1929,37 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Sorting Sheet'!$A$5:$C$11</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>'Sorting Sheet'!$A$5:$A$10</c:f>
+              <c:strCache>
                 <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Aubrey Cerezo Crespo</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Charlie Timbalaco</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Dennis Padilla</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Jamaiza Campomayor</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Jenelyn Madriaga</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Nathaniel Guevarra Aguilar</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>Aubrey Cerezo Crespo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Charlie Timbalaco</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dennis Padilla</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jamaiza Campomayor</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jenelyn Madriaga</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Nathaniel Guevarra Aguilar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sorting Sheet'!$D$5:$D$11</c:f>
+              <c:f>'Sorting Sheet'!$B$5:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>[$PHP]\ #,##0.00;[$PHP]\ \-#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2083,7 +1990,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sorting Sheet'!$E$3:$E$4</c:f>
+              <c:f>'Sorting Sheet'!$C$3:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2128,132 +2035,37 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Sorting Sheet'!$A$5:$C$11</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>'Sorting Sheet'!$A$5:$A$10</c:f>
+              <c:strCache>
                 <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Aubrey Cerezo Crespo</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Charlie Timbalaco</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Dennis Padilla</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Jamaiza Campomayor</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Jenelyn Madriaga</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Nathaniel Guevarra Aguilar</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>Aubrey Cerezo Crespo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Charlie Timbalaco</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dennis Padilla</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jamaiza Campomayor</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jenelyn Madriaga</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Nathaniel Guevarra Aguilar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sorting Sheet'!$E$5:$E$11</c:f>
+              <c:f>'Sorting Sheet'!$C$5:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>[$PHP]\ #,##0.00;[$PHP]\ \-#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2284,7 +2096,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sorting Sheet'!$F$3:$F$4</c:f>
+              <c:f>'Sorting Sheet'!$D$3:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2329,132 +2141,37 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Sorting Sheet'!$A$5:$C$11</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>'Sorting Sheet'!$A$5:$A$10</c:f>
+              <c:strCache>
                 <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Aubrey Cerezo Crespo</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Charlie Timbalaco</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Dennis Padilla</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Jamaiza Campomayor</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Jenelyn Madriaga</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Nathaniel Guevarra Aguilar</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>Aubrey Cerezo Crespo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Charlie Timbalaco</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dennis Padilla</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jamaiza Campomayor</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jenelyn Madriaga</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Nathaniel Guevarra Aguilar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sorting Sheet'!$F$5:$F$11</c:f>
+              <c:f>'Sorting Sheet'!$D$5:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>[$PHP]\ #,##0.00;[$PHP]\ \-#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2485,7 +2202,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sorting Sheet'!$G$3:$G$4</c:f>
+              <c:f>'Sorting Sheet'!$E$3:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2530,132 +2247,37 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Sorting Sheet'!$A$5:$C$11</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>'Sorting Sheet'!$A$5:$A$10</c:f>
+              <c:strCache>
                 <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>G- Cash</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2025</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Aubrey Cerezo Crespo</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Charlie Timbalaco</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Dennis Padilla</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Jamaiza Campomayor</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Jenelyn Madriaga</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Nathaniel Guevarra Aguilar</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>Aubrey Cerezo Crespo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Charlie Timbalaco</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dennis Padilla</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jamaiza Campomayor</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jenelyn Madriaga</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Nathaniel Guevarra Aguilar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sorting Sheet'!$G$5:$G$11</c:f>
+              <c:f>'Sorting Sheet'!$E$5:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>[$PHP]\ #,##0.00;[$PHP]\ \-#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2683,7 +2305,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2749,7 +2371,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2764,10 +2386,52 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Total Amount Paid</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="[$PHP]\ #,##0.00;[$PHP]\ \-#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
@@ -3527,7 +3191,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8738870" y="5329555"/>
+          <a:off x="7633970" y="5329555"/>
           <a:ext cx="5794375" cy="8351520"/>
           <a:chOff x="14015" y="574"/>
           <a:chExt cx="8717" cy="9832"/>
@@ -3760,7 +3424,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45824.6949305556" refreshedBy="denni" recordCount="14">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45826.4711574074" refreshedBy="denni" recordCount="14">
   <cacheSource type="worksheet">
     <worksheetSource name="Table4"/>
   </cacheSource>
@@ -3807,7 +3471,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Day" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="30" count="16">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="29" count="10">
         <n v="3"/>
         <n v="21"/>
         <n v="22"/>
@@ -3818,22 +3482,12 @@
         <n v="29"/>
         <n v="16"/>
         <m/>
-        <n v="30" u="1"/>
-        <n v="20" u="1"/>
-        <n v="25" u="1"/>
-        <n v="1" u="1"/>
-        <n v="2" u="1"/>
-        <n v="5" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="MODE OF PAYMENT" numFmtId="178">
-      <sharedItems containsBlank="1" count="6">
+      <sharedItems containsBlank="1" count="2">
         <s v="G- Cash"/>
         <m/>
-        <s v="G Cash" u="1"/>
-        <s v="Gcash" u="1"/>
-        <s v="Cash" u="1"/>
-        <s v="Bank" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -3963,10 +3617,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" showMissing="0" useAutoFormatting="1" compact="0" indent="0" compactData="0" showDrill="0" multipleFieldFilters="0" fieldListSortAscending="1" chartFormat="6">
-  <location ref="A3:H11" firstHeaderRow="1" firstDataRow="2" firstDataCol="3"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" showMissing="0" useAutoFormatting="1" rowGrandTotals="0" indent="0" outline="1" outlineData="1" showDrill="0" multipleFieldFilters="0" fieldListSortAscending="1" chartFormat="6">
+  <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
-    <pivotField axis="axisRow" compact="0" sortType="ascending" defaultSubtotal="0" outline="0" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisRow" insertBlankRow="1" sortType="ascending" defaultSubtotal="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="15">
         <item m="1" x="7"/>
         <item x="4"/>
@@ -3982,22 +3636,37 @@
         <item m="1" x="12"/>
         <item m="1" x="13"/>
         <item m="1" x="14"/>
-        <item x="6"/>
+        <item h="1" x="6"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
-    <pivotField dataField="1" compact="0" sortType="ascending" defaultSubtotal="0" outline="0" subtotalTop="0" showAll="0">
+    <pivotField dataField="1" insertBlankRow="1" sortType="ascending" defaultSubtotal="0" showAll="0">
       <items count="2">
         <item x="0"/>
         <item x="1"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" sortType="ascending" defaultSubtotal="0" outline="0" subtotalTop="0" showAll="0">
+    <pivotField insertBlankRow="1" sortType="ascending" defaultSubtotal="0" showAll="0">
       <items count="2">
         <item x="0"/>
         <item x="1"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
-    <pivotField axis="axisCol" compact="0" sortType="ascending" defaultSubtotal="0" outline="0" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisCol" insertBlankRow="1" sortType="ascending" defaultSubtotal="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="6">
         <item m="1" x="5"/>
         <item x="0"/>
@@ -4006,76 +3675,64 @@
         <item x="3"/>
         <item x="4"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
-    <pivotField compact="0" sortType="ascending" defaultSubtotal="0" outline="0" subtotalTop="0" showAll="0">
-      <items count="16">
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
+    <pivotField insertBlankRow="1" sortType="ascending" defaultSubtotal="0" showAll="0">
+      <items count="10">
         <item x="0"/>
-        <item m="1" x="15"/>
         <item x="8"/>
         <item x="4"/>
-        <item m="1" x="11"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item m="1" x="12"/>
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="10"/>
         <item x="9"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" sortType="ascending" defaultSubtotal="0" outline="0" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item m="1" x="2"/>
+    <pivotField insertBlankRow="1" sortType="ascending" defaultSubtotal="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="2">
         <item x="0"/>
-        <item m="1" x="3"/>
         <item h="1" x="1"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
   </pivotFields>
-  <rowFields count="3">
+  <rowFields count="1">
     <field x="0"/>
-    <field x="2"/>
-    <field x="5"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="6">
     <i>
       <x v="1"/>
-      <x/>
-      <x v="3"/>
     </i>
     <i>
       <x v="2"/>
-      <x/>
-      <x v="3"/>
     </i>
     <i>
-      <x v="3"/>
-      <x/>
       <x v="3"/>
     </i>
     <i>
       <x v="5"/>
-      <x/>
-      <x v="3"/>
     </i>
     <i>
       <x v="6"/>
-      <x/>
-      <x v="3"/>
     </i>
     <i>
       <x v="8"/>
-      <x/>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -4101,7 +3758,7 @@
   <dataFields count="1">
     <dataField name="Sum of PAID AMOUNT" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="43">
+  <formats count="42">
     <format dxfId="0">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
@@ -4115,58 +3772,49 @@
       </pivotArea>
     </format>
     <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" offset="IV1:IV1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="1">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="3">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="10">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="11">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="12">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="13">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="14">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="15">
       <pivotArea dataOnly="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="12">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="13">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="14">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="15">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
     <format dxfId="16">
-      <pivotArea dataOnly="0" axis="axisValues" fieldPosition="0"/>
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="17">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
@@ -4178,72 +3826,69 @@
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="20">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="21">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="28">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="29">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="30">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="31">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="32">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="33">
       <pivotArea dataOnly="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    <format dxfId="34">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    <format dxfId="35">
+      <pivotArea grandRow="1" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="36">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" offset="D1:D1" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    <format dxfId="39">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" offset="B1:B1" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="34">
-      <pivotArea dataOnly="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="35">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea grandRow="1" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="37">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="38">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" offset="D1:D1" fieldPosition="0"/>
-    </format>
-    <format dxfId="39">
+    <format dxfId="40">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" offset="B1:B1" fieldPosition="0"/>
-    </format>
     <format dxfId="41">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" offset="B1:B1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4257,15 +3902,28 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Year" sourceName="Year">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_MEMBERS" sourceName="MEMBERS">
   <pivotTables>
     <pivotTable tabId="12" name="PivotTable6"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="1">
-      <items count="2">
+    <tabular pivotCacheId="1" showMissing="0">
+      <items count="15">
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="2" s="1"/>
         <i x="0" s="1"/>
-        <i x="1" s="1" nd="1"/>
+        <i x="1" s="1"/>
+        <i x="3" s="1"/>
+        <i x="6" s="0" nd="1"/>
+        <i x="7" s="1" nd="1"/>
+        <i x="8" s="1" nd="1"/>
+        <i x="11" s="1" nd="1"/>
+        <i x="9" s="1" nd="1"/>
+        <i x="10" s="1" nd="1"/>
+        <i x="12" s="1" nd="1"/>
+        <i x="13" s="1" nd="1"/>
+        <i x="14" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -4303,28 +3961,15 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_MEMBERS" sourceName="MEMBERS">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Year" sourceName="Year">
   <pivotTables>
     <pivotTable tabId="12" name="PivotTable6"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="1" showMissing="0">
-      <items count="15">
-        <i x="4" s="1"/>
-        <i x="5" s="1"/>
-        <i x="2" s="1"/>
+    <tabular pivotCacheId="1">
+      <items count="2">
         <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="3" s="1"/>
-        <i x="6" s="1" nd="1"/>
-        <i x="7" s="1" nd="1"/>
-        <i x="8" s="1" nd="1"/>
-        <i x="11" s="1" nd="1"/>
-        <i x="9" s="1" nd="1"/>
-        <i x="10" s="1" nd="1"/>
-        <i x="12" s="1" nd="1"/>
-        <i x="13" s="1" nd="1"/>
-        <i x="14" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -4348,12 +3993,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="F3:K1353" totalsRowShown="0">
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="F3:K1353" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="MEMBERS" dataDxfId="43"/>
-    <tableColumn id="2" name="PAID AMOUNT" dataDxfId="44"/>
+    <tableColumn id="1" name="MEMBERS" dataDxfId="42"/>
+    <tableColumn id="2" name="PAID AMOUNT" dataDxfId="43"/>
     <tableColumn id="6" name="Year"/>
     <tableColumn id="5" name="Month"/>
-    <tableColumn id="3" name="Day" dataDxfId="45"/>
-    <tableColumn id="4" name="MODE OF PAYMENT" dataDxfId="46"/>
+    <tableColumn id="3" name="Day" dataDxfId="44"/>
+    <tableColumn id="4" name="MODE OF PAYMENT" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4619,8 +4264,8 @@
   <sheetPr/>
   <dimension ref="A1:S1353"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="21" customHeight="1"/>
@@ -20162,17 +19807,17 @@
     <mergeCell ref="F1:K2"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14 F15 F16 F4:F13 F17:F1353">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F1353">
       <formula1>$A$4:$A$84</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14 G15 G16 G4:G13 G17:G1353"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14 H15 H16 H4:H13 H17:H1353">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G1353"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1353">
       <formula1>$B$4:$B$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14 I15 I16 I4:I13 I17:I1353">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1353">
       <formula1>$C$4:$C$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14 J15 J16 J4:J13 J17:J1353">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J1353">
       <formula1>$D$4:$D$34</formula1>
     </dataValidation>
   </dataValidations>
@@ -20188,20 +19833,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="25.1111111111111"/>
-    <col min="2" max="2" width="21.1111111111111" style="1"/>
-    <col min="3" max="3" width="23.1111111111111"/>
-    <col min="4" max="4" width="11.1111111111111" style="2"/>
-    <col min="5" max="7" width="11.1111111111111"/>
-    <col min="8" max="9" width="12.6666666666667"/>
+    <col min="2" max="2" width="17.8888888888889" style="1"/>
+    <col min="3" max="3" width="11"/>
+    <col min="4" max="4" width="11" style="2"/>
+    <col min="5" max="5" width="11"/>
+    <col min="6" max="8" width="11.4444444444444"/>
+    <col min="9" max="9" width="12.6666666666667"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="4:4">
@@ -20210,727 +19856,564 @@
     <row r="2" customHeight="1" spans="4:4">
       <c r="D2"/>
     </row>
-    <row r="3" customHeight="1" spans="1:8">
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:8">
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>63</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
+      <c r="B5" s="6">
+        <v>100</v>
+      </c>
+      <c r="C5" s="6">
+        <v>100</v>
       </c>
       <c r="D5" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
         <v>200</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:8">
+    <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
+      <c r="B6" s="6">
+        <v>100</v>
+      </c>
+      <c r="C6" s="6">
+        <v>100</v>
       </c>
       <c r="D6" s="6">
         <v>100</v>
       </c>
       <c r="E6" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F6" s="6">
-        <v>100</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:8">
+    <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
+      <c r="B7" s="6">
+        <v>100</v>
+      </c>
+      <c r="C7" s="6">
+        <v>100</v>
       </c>
       <c r="D7" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E7" s="6">
         <v>100</v>
       </c>
       <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>100</v>
-      </c>
-      <c r="H7" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:8">
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
+      <c r="B8" s="6">
+        <v>100</v>
+      </c>
+      <c r="C8" s="6">
+        <v>100</v>
       </c>
       <c r="D8" s="6">
         <v>100</v>
       </c>
       <c r="E8" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="6">
-        <v>100</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:8">
+    <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
+      <c r="B9" s="6">
+        <v>100</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
       </c>
       <c r="D9" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:8">
+    <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3">
-        <v>2025</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
+      <c r="B10" s="6">
+        <v>100</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
       </c>
       <c r="D10" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
       </c>
       <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6">
-        <v>600</v>
-      </c>
-      <c r="E11" s="6">
-        <v>400</v>
-      </c>
-      <c r="F11" s="6">
-        <v>200</v>
-      </c>
-      <c r="G11" s="6">
-        <v>100</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1300</v>
-      </c>
+    <row r="11" customHeight="1" spans="2:4">
+      <c r="B11"/>
+      <c r="D11"/>
     </row>
     <row r="12" customHeight="1" spans="2:4">
       <c r="B12"/>
-      <c r="C12"/>
       <c r="D12"/>
     </row>
     <row r="13" customHeight="1" spans="2:4">
       <c r="B13"/>
-      <c r="C13"/>
       <c r="D13"/>
     </row>
     <row r="14" customHeight="1" spans="2:4">
       <c r="B14"/>
-      <c r="C14"/>
       <c r="D14"/>
     </row>
     <row r="15" customHeight="1" spans="2:4">
       <c r="B15"/>
-      <c r="C15"/>
       <c r="D15"/>
     </row>
     <row r="16" customHeight="1" spans="2:4">
       <c r="B16"/>
-      <c r="C16"/>
       <c r="D16"/>
     </row>
     <row r="17" customHeight="1" spans="2:4">
       <c r="B17"/>
-      <c r="C17"/>
       <c r="D17"/>
     </row>
     <row r="18" customHeight="1" spans="2:4">
       <c r="B18"/>
-      <c r="C18"/>
       <c r="D18"/>
     </row>
     <row r="19" customHeight="1" spans="2:4">
       <c r="B19"/>
-      <c r="C19"/>
       <c r="D19"/>
     </row>
     <row r="20" customHeight="1" spans="2:4">
       <c r="B20"/>
-      <c r="C20"/>
       <c r="D20"/>
     </row>
     <row r="21" customHeight="1" spans="2:4">
       <c r="B21"/>
-      <c r="C21"/>
       <c r="D21"/>
     </row>
     <row r="22" customHeight="1" spans="2:4">
       <c r="B22"/>
-      <c r="C22"/>
       <c r="D22"/>
     </row>
     <row r="23" customHeight="1" spans="2:4">
       <c r="B23"/>
-      <c r="C23"/>
       <c r="D23"/>
     </row>
     <row r="24" customHeight="1" spans="2:4">
       <c r="B24"/>
-      <c r="C24"/>
       <c r="D24"/>
     </row>
     <row r="25" customHeight="1" spans="2:4">
       <c r="B25"/>
-      <c r="C25"/>
       <c r="D25"/>
     </row>
     <row r="26" customHeight="1" spans="2:4">
       <c r="B26"/>
-      <c r="C26"/>
       <c r="D26"/>
     </row>
     <row r="27" customHeight="1" spans="2:4">
       <c r="B27"/>
-      <c r="C27"/>
       <c r="D27"/>
     </row>
     <row r="28" customHeight="1" spans="2:4">
       <c r="B28"/>
-      <c r="C28"/>
       <c r="D28"/>
     </row>
     <row r="29" customHeight="1" spans="2:4">
       <c r="B29"/>
-      <c r="C29"/>
       <c r="D29"/>
     </row>
     <row r="30" customHeight="1" spans="2:4">
       <c r="B30"/>
-      <c r="C30"/>
       <c r="D30"/>
     </row>
     <row r="31" customHeight="1" spans="2:4">
       <c r="B31"/>
-      <c r="C31"/>
       <c r="D31"/>
     </row>
     <row r="32" customHeight="1" spans="2:4">
       <c r="B32"/>
-      <c r="C32"/>
       <c r="D32"/>
     </row>
     <row r="33" customHeight="1" spans="2:4">
       <c r="B33"/>
-      <c r="C33"/>
       <c r="D33"/>
     </row>
     <row r="34" customHeight="1" spans="2:4">
       <c r="B34"/>
-      <c r="C34"/>
       <c r="D34"/>
     </row>
     <row r="35" customHeight="1" spans="2:4">
       <c r="B35"/>
-      <c r="C35"/>
       <c r="D35"/>
     </row>
     <row r="36" customHeight="1" spans="2:4">
       <c r="B36"/>
-      <c r="C36"/>
       <c r="D36"/>
     </row>
     <row r="37" customHeight="1" spans="2:4">
       <c r="B37"/>
-      <c r="C37"/>
       <c r="D37"/>
     </row>
     <row r="38" customHeight="1" spans="2:4">
       <c r="B38"/>
-      <c r="C38"/>
       <c r="D38"/>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="B39"/>
-      <c r="C39"/>
       <c r="D39"/>
     </row>
     <row r="40" customHeight="1" spans="2:4">
       <c r="B40"/>
-      <c r="C40"/>
       <c r="D40"/>
     </row>
     <row r="41" customHeight="1" spans="2:4">
       <c r="B41"/>
-      <c r="C41"/>
       <c r="D41"/>
     </row>
     <row r="42" customHeight="1" spans="2:4">
       <c r="B42"/>
-      <c r="C42"/>
       <c r="D42"/>
     </row>
     <row r="43" customHeight="1" spans="2:4">
       <c r="B43"/>
-      <c r="C43"/>
       <c r="D43"/>
     </row>
     <row r="44" customHeight="1" spans="2:4">
       <c r="B44"/>
-      <c r="C44"/>
       <c r="D44"/>
     </row>
     <row r="45" customHeight="1" spans="2:4">
       <c r="B45"/>
-      <c r="C45"/>
       <c r="D45"/>
     </row>
     <row r="46" customHeight="1" spans="2:4">
       <c r="B46"/>
-      <c r="C46"/>
       <c r="D46"/>
     </row>
     <row r="47" customHeight="1" spans="2:4">
       <c r="B47"/>
-      <c r="C47"/>
       <c r="D47"/>
     </row>
     <row r="48" customHeight="1" spans="2:4">
       <c r="B48"/>
-      <c r="C48"/>
       <c r="D48"/>
     </row>
     <row r="49" customHeight="1" spans="2:4">
       <c r="B49"/>
-      <c r="C49"/>
       <c r="D49"/>
     </row>
     <row r="50" customHeight="1" spans="2:4">
       <c r="B50"/>
-      <c r="C50"/>
       <c r="D50"/>
     </row>
     <row r="51" customHeight="1" spans="2:4">
       <c r="B51"/>
-      <c r="C51"/>
       <c r="D51"/>
     </row>
     <row r="52" customHeight="1" spans="2:4">
       <c r="B52"/>
-      <c r="C52"/>
       <c r="D52"/>
     </row>
     <row r="53" customHeight="1" spans="2:4">
       <c r="B53"/>
-      <c r="C53"/>
       <c r="D53"/>
     </row>
     <row r="54" customHeight="1" spans="2:4">
       <c r="B54"/>
-      <c r="C54"/>
       <c r="D54"/>
     </row>
     <row r="55" customHeight="1" spans="2:4">
       <c r="B55"/>
-      <c r="C55"/>
       <c r="D55"/>
     </row>
     <row r="56" customHeight="1" spans="2:4">
       <c r="B56"/>
-      <c r="C56"/>
       <c r="D56"/>
     </row>
     <row r="57" customHeight="1" spans="2:4">
       <c r="B57"/>
-      <c r="C57"/>
       <c r="D57"/>
     </row>
     <row r="58" customHeight="1" spans="2:4">
       <c r="B58"/>
-      <c r="C58"/>
       <c r="D58"/>
     </row>
     <row r="59" customHeight="1" spans="2:4">
       <c r="B59"/>
-      <c r="C59"/>
       <c r="D59"/>
     </row>
     <row r="60" customHeight="1" spans="2:4">
       <c r="B60"/>
-      <c r="C60"/>
       <c r="D60"/>
     </row>
     <row r="61" customHeight="1" spans="2:4">
       <c r="B61"/>
-      <c r="C61"/>
       <c r="D61"/>
     </row>
     <row r="62" customHeight="1" spans="2:4">
       <c r="B62"/>
-      <c r="C62"/>
       <c r="D62"/>
     </row>
     <row r="63" customHeight="1" spans="2:4">
       <c r="B63"/>
-      <c r="C63"/>
       <c r="D63"/>
     </row>
     <row r="64" customHeight="1" spans="2:4">
       <c r="B64"/>
-      <c r="C64"/>
       <c r="D64"/>
     </row>
     <row r="65" customHeight="1" spans="2:4">
       <c r="B65"/>
-      <c r="C65"/>
       <c r="D65"/>
     </row>
     <row r="66" customHeight="1" spans="2:4">
       <c r="B66"/>
-      <c r="C66"/>
       <c r="D66"/>
     </row>
     <row r="67" customHeight="1" spans="2:4">
       <c r="B67"/>
-      <c r="C67"/>
       <c r="D67"/>
     </row>
     <row r="68" customHeight="1" spans="2:4">
       <c r="B68"/>
-      <c r="C68"/>
       <c r="D68"/>
     </row>
     <row r="69" customHeight="1" spans="2:4">
       <c r="B69"/>
-      <c r="C69"/>
       <c r="D69"/>
     </row>
     <row r="70" customHeight="1" spans="2:4">
       <c r="B70"/>
-      <c r="C70"/>
       <c r="D70"/>
     </row>
     <row r="71" customHeight="1" spans="2:4">
       <c r="B71"/>
-      <c r="C71"/>
       <c r="D71"/>
     </row>
     <row r="72" customHeight="1" spans="2:4">
       <c r="B72"/>
-      <c r="C72"/>
       <c r="D72"/>
     </row>
     <row r="73" customHeight="1" spans="2:4">
       <c r="B73"/>
-      <c r="C73"/>
       <c r="D73"/>
     </row>
     <row r="74" customHeight="1" spans="2:4">
       <c r="B74"/>
-      <c r="C74"/>
       <c r="D74"/>
     </row>
     <row r="75" customHeight="1" spans="2:4">
       <c r="B75"/>
-      <c r="C75"/>
       <c r="D75"/>
     </row>
     <row r="76" customHeight="1" spans="2:4">
       <c r="B76"/>
-      <c r="C76"/>
       <c r="D76"/>
     </row>
     <row r="77" customHeight="1" spans="2:4">
       <c r="B77"/>
-      <c r="C77"/>
       <c r="D77"/>
     </row>
     <row r="78" customHeight="1" spans="2:4">
       <c r="B78"/>
-      <c r="C78"/>
       <c r="D78"/>
     </row>
     <row r="79" customHeight="1" spans="2:4">
       <c r="B79"/>
-      <c r="C79"/>
       <c r="D79"/>
     </row>
     <row r="80" customHeight="1" spans="2:4">
       <c r="B80"/>
-      <c r="C80"/>
       <c r="D80"/>
     </row>
     <row r="81" customHeight="1" spans="2:4">
       <c r="B81"/>
-      <c r="C81"/>
       <c r="D81"/>
     </row>
     <row r="82" customHeight="1" spans="2:4">
       <c r="B82"/>
-      <c r="C82"/>
       <c r="D82"/>
     </row>
     <row r="83" customHeight="1" spans="2:4">
       <c r="B83"/>
-      <c r="C83"/>
       <c r="D83"/>
     </row>
     <row r="84" customHeight="1" spans="2:4">
       <c r="B84"/>
-      <c r="C84"/>
       <c r="D84"/>
     </row>
     <row r="85" customHeight="1" spans="2:4">
       <c r="B85"/>
-      <c r="C85"/>
       <c r="D85"/>
     </row>
     <row r="86" customHeight="1" spans="2:4">
       <c r="B86"/>
-      <c r="C86"/>
       <c r="D86"/>
     </row>
     <row r="87" customHeight="1" spans="2:4">
       <c r="B87"/>
-      <c r="C87"/>
       <c r="D87"/>
     </row>
     <row r="88" customHeight="1" spans="2:4">
       <c r="B88"/>
-      <c r="C88"/>
       <c r="D88"/>
     </row>
     <row r="89" customHeight="1" spans="2:4">
       <c r="B89"/>
-      <c r="C89"/>
       <c r="D89"/>
     </row>
     <row r="90" customHeight="1" spans="2:4">
       <c r="B90"/>
-      <c r="C90"/>
       <c r="D90"/>
     </row>
     <row r="91" customHeight="1" spans="2:4">
       <c r="B91"/>
-      <c r="C91"/>
       <c r="D91"/>
     </row>
     <row r="92" customHeight="1" spans="2:4">
       <c r="B92"/>
-      <c r="C92"/>
       <c r="D92"/>
     </row>
     <row r="93" customHeight="1" spans="2:4">
       <c r="B93"/>
-      <c r="C93"/>
       <c r="D93"/>
     </row>
     <row r="94" customHeight="1" spans="2:4">
       <c r="B94"/>
-      <c r="C94"/>
       <c r="D94"/>
     </row>
     <row r="95" customHeight="1" spans="2:4">
       <c r="B95"/>
-      <c r="C95"/>
       <c r="D95"/>
     </row>
     <row r="96" customHeight="1" spans="2:4">
       <c r="B96"/>
-      <c r="C96"/>
       <c r="D96"/>
     </row>
     <row r="97" customHeight="1" spans="2:4">
       <c r="B97"/>
-      <c r="C97"/>
       <c r="D97"/>
     </row>
     <row r="98" customHeight="1" spans="2:4">
       <c r="B98"/>
-      <c r="C98"/>
       <c r="D98"/>
     </row>
     <row r="99" customHeight="1" spans="2:4">
       <c r="B99"/>
-      <c r="C99"/>
       <c r="D99"/>
     </row>
     <row r="100" customHeight="1" spans="2:4">
       <c r="B100"/>
-      <c r="C100"/>
       <c r="D100"/>
     </row>
     <row r="101" customHeight="1" spans="2:4">
       <c r="B101"/>
-      <c r="C101"/>
       <c r="D101"/>
     </row>
     <row r="102" customHeight="1" spans="2:4">
       <c r="B102"/>
-      <c r="C102"/>
       <c r="D102"/>
     </row>
     <row r="103" customHeight="1" spans="2:4">
       <c r="B103"/>
-      <c r="C103"/>
       <c r="D103"/>
     </row>
     <row r="104" customHeight="1" spans="2:4">
       <c r="B104"/>
-      <c r="C104"/>
       <c r="D104"/>
     </row>
     <row r="105" customHeight="1" spans="2:4">
       <c r="B105"/>
-      <c r="C105"/>
       <c r="D105"/>
     </row>
     <row r="106" customHeight="1" spans="2:4">
       <c r="B106"/>
-      <c r="C106"/>
       <c r="D106"/>
     </row>
     <row r="107" customHeight="1" spans="2:4">
       <c r="B107"/>
-      <c r="C107"/>
       <c r="D107"/>
     </row>
     <row r="108" customHeight="1" spans="2:4">
       <c r="B108"/>
-      <c r="C108"/>
       <c r="D108"/>
     </row>
     <row r="109" customHeight="1" spans="2:4">
       <c r="B109"/>
-      <c r="C109"/>
       <c r="D109"/>
     </row>
     <row r="110" customHeight="1" spans="2:4">
       <c r="B110"/>
-      <c r="C110"/>
       <c r="D110"/>
     </row>
     <row r="111" customHeight="1" spans="2:4">
       <c r="B111"/>
-      <c r="C111"/>
       <c r="D111"/>
     </row>
     <row r="112" customHeight="1" spans="2:4">
       <c r="B112"/>
-      <c r="C112"/>
       <c r="D112"/>
     </row>
   </sheetData>
@@ -20952,8 +20435,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/Payment Data Base.xlsx
+++ b/Payment Data Base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="21000" windowHeight="8400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input Sheet" sheetId="4" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="Overview" sheetId="13" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="Slicer_Year">#N/A</definedName>
+    <definedName name="Slicer_Month">#N/A</definedName>
     <definedName name="Slicer_MEMBERS">#N/A</definedName>
-    <definedName name="Slicer_Month">#N/A</definedName>
-    <definedName name="Slicer_Year">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
   <si>
     <t>Payment Record</t>
   </si>
@@ -1868,7 +1868,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[payment data base.20250616170602044.xlsx]Sorting Sheet!PivotTable6</c:name>
+    <c:name>[Payment Data Base.xlsx]Sorting Sheet!PivotTable6</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2285,13 +2285,119 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sorting Sheet'!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5"/>
+                </a:gs>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:hueOff val="-1670000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="75000"/>
+                      <a:hueOff val="-1670000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="4620000" scaled="0"/>
+              </a:gradFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sorting Sheet'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aubrey Cerezo Crespo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Charlie Timbalaco</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dennis Padilla</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jamaiza Campomayor</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jenelyn Madriaga</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Nathaniel Guevarra Aguilar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sorting Sheet'!$F$5:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>[$PHP]\ #,##0.00;[$PHP]\ \-#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3162,27 +3268,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>67310</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>226060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>116205</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:colOff>71120</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3191,7 +3290,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7633970" y="5329555"/>
+          <a:off x="7558405" y="467360"/>
           <a:ext cx="5794375" cy="8351520"/>
           <a:chOff x="14015" y="574"/>
           <a:chExt cx="8717" cy="9832"/>
@@ -3424,7 +3523,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45826.4711574074" refreshedBy="denni" recordCount="14">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45852.4112962963" refreshedBy="denni" recordCount="16">
   <cacheSource type="worksheet">
     <worksheetSource name="Table4"/>
   </cacheSource>
@@ -3461,17 +3560,18 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Month" numFmtId="179">
-      <sharedItems containsBlank="1" count="6">
+      <sharedItems containsBlank="1" count="7">
         <s v="March"/>
         <s v="April"/>
         <s v="May"/>
         <s v="June"/>
+        <s v="July"/>
         <m/>
         <s v="January" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Day" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="29" count="10">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="29" count="11">
         <n v="3"/>
         <n v="21"/>
         <n v="22"/>
@@ -3481,6 +3581,7 @@
         <n v="28"/>
         <n v="29"/>
         <n v="16"/>
+        <n v="2"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -3500,7 +3601,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="14">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="16">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -3606,11 +3707,27 @@
     <x v="0"/>
   </r>
   <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="6"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="4"/>
-    <x v="9"/>
+    <x v="5"/>
+    <x v="10"/>
     <x v="1"/>
   </r>
 </pivotCacheRecords>
@@ -3618,7 +3735,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" showMissing="0" useAutoFormatting="1" rowGrandTotals="0" indent="0" outline="1" outlineData="1" showDrill="0" multipleFieldFilters="0" fieldListSortAscending="1" chartFormat="6">
-  <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" insertBlankRow="1" sortType="ascending" defaultSubtotal="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="15">
@@ -3667,13 +3784,14 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisCol" insertBlankRow="1" sortType="ascending" defaultSubtotal="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item m="1" x="5"/>
+      <items count="7">
+        <item m="1" x="6"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="5"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -3682,7 +3800,8 @@
       </extLst>
     </pivotField>
     <pivotField insertBlankRow="1" sortType="ascending" defaultSubtotal="0" showAll="0">
-      <items count="10">
+      <items count="11">
+        <item x="9"/>
         <item x="0"/>
         <item x="8"/>
         <item x="4"/>
@@ -3692,7 +3811,7 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item x="9"/>
+        <item x="10"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -3738,7 +3857,7 @@
   <colFields count="1">
     <field x="3"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="6">
     <i>
       <x v="1"/>
     </i>
@@ -3750,6 +3869,9 @@
     </i>
     <i>
       <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -3902,6 +4024,53 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Year" sourceName="Year">
+  <pivotTables>
+    <pivotTable tabId="12" name="PivotTable6"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="2">
+        <i x="0" s="1"/>
+        <i x="1" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Month" sourceName="Month">
+  <pivotTables>
+    <pivotTable tabId="12" name="PivotTable6"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="7">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="5" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_MEMBERS" sourceName="MEMBERS">
   <pivotTables>
     <pivotTable tabId="12" name="PivotTable6"/>
@@ -3924,52 +4093,6 @@
         <i x="12" s="1" nd="1"/>
         <i x="13" s="1" nd="1"/>
         <i x="14" s="1" nd="1"/>
-      </items>
-    </tabular>
-  </data>
-  <extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
-      <x15:slicerCacheHideItemsWithNoData/>
-    </x:ext>
-  </extLst>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Month" sourceName="Month">
-  <pivotTables>
-    <pivotTable tabId="12" name="PivotTable6"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="1">
-      <items count="6">
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
-        <i x="3" s="1"/>
-        <i x="5" s="1" nd="1"/>
-        <i x="4" s="1" nd="1"/>
-      </items>
-    </tabular>
-  </data>
-  <extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
-      <x15:slicerCacheHideItemsWithNoData/>
-    </x:ext>
-  </extLst>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Year" sourceName="Year">
-  <pivotTables>
-    <pivotTable tabId="12" name="PivotTable6"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="1">
-      <items count="2">
-        <i x="0" s="1"/>
-        <i x="1" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -4264,8 +4387,8 @@
   <sheetPr/>
   <dimension ref="A1:S1353"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="21" customHeight="1"/>
@@ -4876,12 +4999,24 @@
       <c r="E17">
         <v>14</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="20"/>
+      <c r="F17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="18">
+        <v>100</v>
+      </c>
+      <c r="H17" s="17">
+        <v>2025</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="28">
+        <v>29</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
@@ -4902,12 +5037,24 @@
       <c r="E18">
         <v>15</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="20"/>
+      <c r="F18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="18">
+        <v>100</v>
+      </c>
+      <c r="H18" s="17">
+        <v>2025</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="28">
+        <v>2</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
@@ -19807,18 +19954,18 @@
     <mergeCell ref="F1:K2"/>
   </mergeCells>
   <dataValidations count="5">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17 G18 G4:G16 G19:G1353"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17 H18 H4:H16 H19:H1353">
+      <formula1>$B$4:$B$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I17 I18 I4:I16 I19:I1353">
+      <formula1>$C$4:$C$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17 J18 J4:J16 J19:J1353">
+      <formula1>$D$4:$D$34</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F1353">
       <formula1>$A$4:$A$84</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G1353"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1353">
-      <formula1>$B$4:$B$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1353">
-      <formula1>$C$4:$C$15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J1353">
-      <formula1>$D$4:$D$34</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19833,20 +19980,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="25.1111111111111"/>
     <col min="2" max="2" width="17.8888888888889" style="1"/>
     <col min="3" max="3" width="11"/>
     <col min="4" max="4" width="11" style="2"/>
-    <col min="5" max="5" width="11"/>
-    <col min="6" max="8" width="11.4444444444444"/>
+    <col min="5" max="6" width="11"/>
+    <col min="7" max="8" width="11.4444444444444"/>
     <col min="9" max="9" width="12.6666666666667"/>
   </cols>
   <sheetData>
@@ -19856,7 +20003,7 @@
     <row r="2" customHeight="1" spans="4:4">
       <c r="D2"/>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>61</v>
       </c>
@@ -19867,8 +20014,9 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:6">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>63</v>
       </c>
@@ -19885,10 +20033,13 @@
         <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -19905,10 +20056,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
         <v>200</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:6">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -19922,13 +20076,16 @@
         <v>100</v>
       </c>
       <c r="E6" s="6">
+        <v>100</v>
+      </c>
+      <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="F6" s="6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:6">
+      <c r="G6" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -19945,10 +20102,13 @@
         <v>100</v>
       </c>
       <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
+    <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -19965,10 +20125,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:6">
+        <v>100</v>
+      </c>
+      <c r="G8" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -19985,10 +20148,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
+    <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -20005,6 +20171,9 @@
         <v>0</v>
       </c>
       <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
         <v>100</v>
       </c>
     </row>
@@ -20435,8 +20604,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/Payment Data Base.xlsx
+++ b/Payment Data Base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8400" activeTab="2"/>
+    <workbookView windowWidth="21000" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="Input Sheet" sheetId="4" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="Overview" sheetId="13" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="Slicer_MEMBERS">#N/A</definedName>
+    <definedName name="Slicer_Month">#N/A</definedName>
     <definedName name="Slicer_Year">#N/A</definedName>
-    <definedName name="Slicer_Month">#N/A</definedName>
-    <definedName name="Slicer_MEMBERS">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -3523,7 +3523,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45852.4112962963" refreshedBy="denni" recordCount="16">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45852.4155787037" refreshedBy="denni" recordCount="16">
   <cacheSource type="worksheet">
     <worksheetSource name="Table4"/>
   </cacheSource>
@@ -4024,15 +4024,28 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Year" sourceName="Year">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_MEMBERS" sourceName="MEMBERS">
   <pivotTables>
     <pivotTable tabId="12" name="PivotTable6"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="1">
-      <items count="2">
+    <tabular pivotCacheId="1" showMissing="0">
+      <items count="15">
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="2" s="1"/>
         <i x="0" s="1"/>
-        <i x="1" s="1" nd="1"/>
+        <i x="1" s="1"/>
+        <i x="3" s="1"/>
+        <i x="6" s="0" nd="1"/>
+        <i x="7" s="1" nd="1"/>
+        <i x="8" s="1" nd="1"/>
+        <i x="11" s="1" nd="1"/>
+        <i x="9" s="1" nd="1"/>
+        <i x="10" s="1" nd="1"/>
+        <i x="12" s="1" nd="1"/>
+        <i x="13" s="1" nd="1"/>
+        <i x="14" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -4071,28 +4084,15 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_MEMBERS" sourceName="MEMBERS">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Year" sourceName="Year">
   <pivotTables>
     <pivotTable tabId="12" name="PivotTable6"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="1" showMissing="0">
-      <items count="15">
-        <i x="4" s="1"/>
-        <i x="5" s="1"/>
-        <i x="2" s="1"/>
+    <tabular pivotCacheId="1">
+      <items count="2">
         <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="3" s="1"/>
-        <i x="6" s="0" nd="1"/>
-        <i x="7" s="1" nd="1"/>
-        <i x="8" s="1" nd="1"/>
-        <i x="11" s="1" nd="1"/>
-        <i x="9" s="1" nd="1"/>
-        <i x="10" s="1" nd="1"/>
-        <i x="12" s="1" nd="1"/>
-        <i x="13" s="1" nd="1"/>
-        <i x="14" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -4387,7 +4387,7 @@
   <sheetPr/>
   <dimension ref="A1:S1353"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -19954,18 +19954,18 @@
     <mergeCell ref="F1:K2"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17 G18 G4:G16 G19:G1353"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17 H18 H4:H16 H19:H1353">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F1353">
+      <formula1>$A$4:$A$84</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G1353"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1353">
       <formula1>$B$4:$B$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I17 I18 I4:I16 I19:I1353">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1353">
       <formula1>$C$4:$C$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17 J18 J4:J16 J19:J1353">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J1353">
       <formula1>$D$4:$D$34</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F1353">
-      <formula1>$A$4:$A$84</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20604,7 +20604,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>

--- a/Payment Data Base.xlsx
+++ b/Payment Data Base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8400"/>
+    <workbookView windowWidth="21000" windowHeight="8400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input Sheet" sheetId="4" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="Overview" sheetId="13" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="Slicer_Year">#N/A</definedName>
+    <definedName name="Slicer_Month">#N/A</definedName>
     <definedName name="Slicer_MEMBERS">#N/A</definedName>
-    <definedName name="Slicer_Month">#N/A</definedName>
-    <definedName name="Slicer_Year">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -3523,7 +3523,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45852.4155787037" refreshedBy="denni" recordCount="16">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45852.6100231481" refreshedBy="denni" recordCount="16">
   <cacheSource type="worksheet">
     <worksheetSource name="Table4"/>
   </cacheSource>
@@ -4024,28 +4024,15 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_MEMBERS" sourceName="MEMBERS">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Year" sourceName="Year">
   <pivotTables>
     <pivotTable tabId="12" name="PivotTable6"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="1" showMissing="0">
-      <items count="15">
-        <i x="4" s="1"/>
-        <i x="5" s="1"/>
-        <i x="2" s="1"/>
+    <tabular pivotCacheId="1">
+      <items count="2">
         <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="3" s="1"/>
-        <i x="6" s="0" nd="1"/>
-        <i x="7" s="1" nd="1"/>
-        <i x="8" s="1" nd="1"/>
-        <i x="11" s="1" nd="1"/>
-        <i x="9" s="1" nd="1"/>
-        <i x="10" s="1" nd="1"/>
-        <i x="12" s="1" nd="1"/>
-        <i x="13" s="1" nd="1"/>
-        <i x="14" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -4084,15 +4071,28 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Year" sourceName="Year">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_MEMBERS" sourceName="MEMBERS">
   <pivotTables>
     <pivotTable tabId="12" name="PivotTable6"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="1">
-      <items count="2">
+    <tabular pivotCacheId="1" showMissing="0">
+      <items count="15">
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="2" s="1"/>
         <i x="0" s="1"/>
-        <i x="1" s="1" nd="1"/>
+        <i x="1" s="1"/>
+        <i x="3" s="1"/>
+        <i x="6" s="0" nd="1"/>
+        <i x="7" s="1" nd="1"/>
+        <i x="8" s="1" nd="1"/>
+        <i x="11" s="1" nd="1"/>
+        <i x="9" s="1" nd="1"/>
+        <i x="10" s="1" nd="1"/>
+        <i x="12" s="1" nd="1"/>
+        <i x="13" s="1" nd="1"/>
+        <i x="14" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -4387,7 +4387,7 @@
   <sheetPr/>
   <dimension ref="A1:S1353"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -20604,8 +20604,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/Payment Data Base.xlsx
+++ b/Payment Data Base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8400" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input Sheet" sheetId="4" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="Overview" sheetId="13" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="Slicer_MEMBERS">#N/A</definedName>
+    <definedName name="Slicer_Month">#N/A</definedName>
     <definedName name="Slicer_Year">#N/A</definedName>
-    <definedName name="Slicer_Month">#N/A</definedName>
-    <definedName name="Slicer_MEMBERS">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="65">
   <si>
     <t>Payment Record</t>
   </si>
@@ -1116,7 +1116,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -2409,6 +2409,112 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sorting Sheet'!$G$3:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>September</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6"/>
+                </a:gs>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:hueOff val="-1670000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="75000"/>
+                      <a:hueOff val="-1670000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="4620000" scaled="0"/>
+              </a:gradFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sorting Sheet'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Aubrey Cerezo Crespo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Charlie Timbalaco</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dennis Padilla</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jamaiza Campomayor</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jenelyn Madriaga</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Nathaniel Guevarra Aguilar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sorting Sheet'!$G$5:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>[$PHP]\ #,##0.00;[$PHP]\ \-#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3273,15 +3379,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>226060</xdr:rowOff>
+      <xdr:colOff>554990</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>71120</xdr:colOff>
+      <xdr:colOff>603885</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3290,7 +3396,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7558405" y="467360"/>
+          <a:off x="8060690" y="533400"/>
           <a:ext cx="5794375" cy="8351520"/>
           <a:chOff x="14015" y="574"/>
           <a:chExt cx="8717" cy="9832"/>
@@ -3523,7 +3629,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45852.6100231481" refreshedBy="denni" recordCount="16">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45926.5771759259" refreshedBy="HYDROLEAP" recordCount="17">
   <cacheSource type="worksheet">
     <worksheetSource name="Table4"/>
   </cacheSource>
@@ -3548,8 +3654,9 @@
       </sharedItems>
     </cacheField>
     <cacheField name="PAID AMOUNT" numFmtId="178">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="100" maxValue="100" count="2">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="100" maxValue="300" count="3">
         <n v="100"/>
+        <n v="300"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -3560,18 +3667,19 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Month" numFmtId="179">
-      <sharedItems containsBlank="1" count="7">
+      <sharedItems containsBlank="1" count="8">
         <s v="March"/>
         <s v="April"/>
         <s v="May"/>
         <s v="June"/>
         <s v="July"/>
+        <s v="September"/>
         <m/>
         <s v="January" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Day" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="29" count="11">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="29" count="12">
         <n v="3"/>
         <n v="21"/>
         <n v="22"/>
@@ -3582,6 +3690,7 @@
         <n v="29"/>
         <n v="16"/>
         <n v="2"/>
+        <n v="4"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -3601,7 +3710,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="16">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -3723,11 +3832,19 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="6"/>
+    <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="11"/>
     <x v="1"/>
   </r>
 </pivotCacheRecords>
@@ -3735,7 +3852,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" showMissing="0" useAutoFormatting="1" rowGrandTotals="0" indent="0" outline="1" outlineData="1" showDrill="0" multipleFieldFilters="0" fieldListSortAscending="1" chartFormat="6">
-  <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A3:H10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" insertBlankRow="1" sortType="ascending" defaultSubtotal="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="15">
@@ -3762,9 +3879,10 @@
       </extLst>
     </pivotField>
     <pivotField dataField="1" insertBlankRow="1" sortType="ascending" defaultSubtotal="0" showAll="0">
-      <items count="2">
+      <items count="3">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -3784,14 +3902,15 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisCol" insertBlankRow="1" sortType="ascending" defaultSubtotal="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item m="1" x="6"/>
+      <items count="8">
+        <item m="1" x="7"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -3800,9 +3919,10 @@
       </extLst>
     </pivotField>
     <pivotField insertBlankRow="1" sortType="ascending" defaultSubtotal="0" showAll="0">
-      <items count="11">
+      <items count="12">
         <item x="9"/>
         <item x="0"/>
+        <item x="10"/>
         <item x="8"/>
         <item x="4"/>
         <item x="1"/>
@@ -3811,7 +3931,7 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item x="10"/>
+        <item x="11"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -3857,7 +3977,7 @@
   <colFields count="1">
     <field x="3"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="7">
     <i>
       <x v="1"/>
     </i>
@@ -3872,6 +3992,9 @@
     </i>
     <i>
       <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -4024,53 +4147,6 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Year" sourceName="Year">
-  <pivotTables>
-    <pivotTable tabId="12" name="PivotTable6"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="1">
-      <items count="2">
-        <i x="0" s="1"/>
-        <i x="1" s="1" nd="1"/>
-      </items>
-    </tabular>
-  </data>
-  <extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
-      <x15:slicerCacheHideItemsWithNoData/>
-    </x:ext>
-  </extLst>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Month" sourceName="Month">
-  <pivotTables>
-    <pivotTable tabId="12" name="PivotTable6"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="1">
-      <items count="7">
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
-        <i x="3" s="1"/>
-        <i x="4" s="1"/>
-        <i x="6" s="1" nd="1"/>
-        <i x="5" s="1" nd="1"/>
-      </items>
-    </tabular>
-  </data>
-  <extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
-      <x15:slicerCacheHideItemsWithNoData/>
-    </x:ext>
-  </extLst>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_MEMBERS" sourceName="MEMBERS">
   <pivotTables>
     <pivotTable tabId="12" name="PivotTable6"/>
@@ -4093,6 +4169,54 @@
         <i x="12" s="1" nd="1"/>
         <i x="13" s="1" nd="1"/>
         <i x="14" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Month" sourceName="Month">
+  <pivotTables>
+    <pivotTable tabId="12" name="PivotTable6"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="8">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="7" s="1" nd="1"/>
+        <i x="6" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Year" sourceName="Year">
+  <pivotTables>
+    <pivotTable tabId="12" name="PivotTable6"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="2">
+        <i x="0" s="1"/>
+        <i x="1" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -4388,7 +4512,7 @@
   <dimension ref="A1:S1353"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="21" customHeight="1"/>
@@ -5075,12 +5199,24 @@
       <c r="E19">
         <v>16</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="20"/>
+      <c r="F19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="20">
+        <v>300</v>
+      </c>
+      <c r="H19" s="19">
+        <v>2025</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="28">
+        <v>4</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
@@ -19980,20 +20116,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="25.1111111111111"/>
     <col min="2" max="2" width="17.8888888888889" style="1"/>
     <col min="3" max="3" width="11"/>
     <col min="4" max="4" width="11" style="2"/>
-    <col min="5" max="6" width="11"/>
-    <col min="7" max="8" width="11.4444444444444"/>
+    <col min="5" max="7" width="11"/>
+    <col min="8" max="8" width="11.4444444444444"/>
     <col min="9" max="9" width="12.6666666666667"/>
   </cols>
   <sheetData>
@@ -20003,7 +20139,7 @@
     <row r="2" customHeight="1" spans="4:4">
       <c r="D2"/>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>61</v>
       </c>
@@ -20015,8 +20151,9 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:7">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>63</v>
       </c>
@@ -20036,10 +20173,13 @@
         <v>26</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -20059,10 +20199,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <v>200</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -20082,10 +20225,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" customHeight="1" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -20105,10 +20251,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:7">
+    <row r="8" customHeight="1" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -20128,10 +20277,13 @@
         <v>100</v>
       </c>
       <c r="G8" s="6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:7">
+        <v>300</v>
+      </c>
+      <c r="H8" s="6">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:8">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -20151,10 +20303,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:7">
+    <row r="10" customHeight="1" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -20174,6 +20329,9 @@
         <v>0</v>
       </c>
       <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
         <v>100</v>
       </c>
     </row>
@@ -20604,8 +20762,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
